--- a/Tablica.xlsx
+++ b/Tablica.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="13580" tabRatio="500"/>
+    <workbookView xWindow="-180" yWindow="0" windowWidth="27320" windowHeight="13560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="32">
   <si>
     <t>simple</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>AVERAGE RANK</t>
+  </si>
+  <si>
+    <t>fitness median</t>
   </si>
 </sst>
 </file>
@@ -244,7 +247,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -306,8 +309,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="60">
+  <cellStyleXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
@@ -368,8 +380,44 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -395,8 +443,10 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="60">
+  <cellStyles count="96">
     <cellStyle name="Explanatory Text" xfId="17" builtinId="53"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -425,6 +475,24 @@
     <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -453,6 +521,24 @@
     <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="25" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="2" builtinId="10"/>
@@ -785,17 +871,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y51"/>
+  <dimension ref="A1:Z51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Y19" sqref="Y19"/>
+    <sheetView tabSelected="1" topLeftCell="O18" workbookViewId="0">
+      <selection activeCell="Z27" sqref="Z27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="8" max="8" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.625" customWidth="1"/>
+    <col min="12" max="12" width="15.875" customWidth="1"/>
     <col min="19" max="19" width="14.5" customWidth="1"/>
     <col min="25" max="25" width="16.625" customWidth="1"/>
   </cols>
@@ -1229,7 +1315,7 @@
         <v>16.152439999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:26">
       <c r="M17" s="19"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
@@ -1243,7 +1329,7 @@
       <c r="W17" s="3"/>
       <c r="X17" s="19"/>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:26">
       <c r="L18" s="6" t="s">
         <v>29</v>
       </c>
@@ -1282,7 +1368,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:26">
       <c r="L19" s="11"/>
       <c r="M19" s="12" t="s">
         <v>25</v>
@@ -1324,7 +1410,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:26">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1347,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N20" s="11">
         <v>2</v>
@@ -1359,35 +1445,38 @@
         <v>1</v>
       </c>
       <c r="Q20" s="11">
-        <v>2</v>
-      </c>
-      <c r="R20" s="11">
-        <v>2</v>
-      </c>
-      <c r="S20" s="13">
+        <v>3</v>
+      </c>
+      <c r="R20" s="14">
+        <v>1</v>
+      </c>
+      <c r="S20" s="15">
+        <v>1</v>
+      </c>
+      <c r="T20" s="14">
+        <v>1</v>
+      </c>
+      <c r="U20" s="14">
+        <v>1</v>
+      </c>
+      <c r="V20" s="11">
         <v>4</v>
       </c>
-      <c r="T20" s="14">
-        <v>1</v>
-      </c>
-      <c r="U20" s="14">
-        <v>1</v>
-      </c>
-      <c r="V20" s="11">
-        <v>3</v>
-      </c>
       <c r="W20" s="3">
         <v>1</v>
       </c>
       <c r="X20" s="11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y20" s="3">
-        <f>AVERAGE(M20:X20)</f>
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25">
+        <f t="shared" ref="Y20:Y28" si="0">AVERAGE(M20:X20)</f>
+        <v>2.0833333333333335</v>
+      </c>
+      <c r="Z20" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1416,7 +1505,7 @@
         <v>6</v>
       </c>
       <c r="N21" s="11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O21" s="11">
         <v>6</v>
@@ -1425,35 +1514,38 @@
         <v>6</v>
       </c>
       <c r="Q21" s="11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R21" s="11">
         <v>8</v>
       </c>
       <c r="S21" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T21" s="11">
         <v>5</v>
       </c>
-      <c r="U21" s="11">
-        <v>6</v>
+      <c r="U21" s="14">
+        <v>1</v>
       </c>
       <c r="V21" s="11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W21" s="11">
         <v>7</v>
       </c>
       <c r="X21" s="11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Y21" s="3">
-        <f>AVERAGE(M21:X21)</f>
-        <v>5.916666666666667</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="Z21" s="25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
       <c r="A22">
         <v>2</v>
       </c>
@@ -1484,17 +1576,17 @@
       <c r="N22" s="11">
         <v>5</v>
       </c>
-      <c r="O22" s="11">
-        <v>5</v>
+      <c r="O22" s="14">
+        <v>1</v>
       </c>
       <c r="P22" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q22" s="11">
         <v>4</v>
       </c>
       <c r="R22" s="11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S22" s="15">
         <v>1</v>
@@ -1503,23 +1595,26 @@
         <v>3</v>
       </c>
       <c r="U22" s="11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V22" s="11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W22" s="13">
-        <v>5</v>
-      </c>
-      <c r="X22" s="11">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="X22" s="14">
+        <v>1</v>
       </c>
       <c r="Y22" s="3">
-        <f>AVERAGE(M22:X22)</f>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25">
+        <f t="shared" si="0"/>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="Z22" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
       <c r="A23">
         <v>3</v>
       </c>
@@ -1545,31 +1640,31 @@
         <v>3</v>
       </c>
       <c r="M23" s="21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N23" s="11">
         <v>3</v>
       </c>
-      <c r="O23" s="11">
-        <v>4</v>
+      <c r="O23" s="14">
+        <v>1</v>
       </c>
       <c r="P23" s="11">
         <v>2</v>
       </c>
       <c r="Q23" s="11">
-        <v>3</v>
-      </c>
-      <c r="R23" s="11">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="R23" s="14">
+        <v>1</v>
       </c>
       <c r="S23" s="13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T23" s="11">
         <v>4</v>
       </c>
-      <c r="U23" s="11">
-        <v>5</v>
+      <c r="U23" s="14">
+        <v>1</v>
       </c>
       <c r="V23" s="11">
         <v>2</v>
@@ -1578,14 +1673,17 @@
         <v>3</v>
       </c>
       <c r="X23" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y23" s="3">
-        <f>AVERAGE(M23:X23)</f>
-        <v>3.4166666666666665</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25">
+        <f t="shared" si="0"/>
+        <v>2.25</v>
+      </c>
+      <c r="Z23" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
       <c r="A24">
         <v>4</v>
       </c>
@@ -1614,44 +1712,47 @@
         <v>7</v>
       </c>
       <c r="N24" s="11">
-        <v>6</v>
-      </c>
-      <c r="O24" s="11">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="O24" s="14">
+        <v>1</v>
       </c>
       <c r="P24" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q24" s="11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R24" s="11">
         <v>7</v>
       </c>
       <c r="S24" s="13">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T24" s="11">
         <v>8</v>
       </c>
-      <c r="U24" s="11">
-        <v>8</v>
+      <c r="U24" s="14">
+        <v>1</v>
       </c>
       <c r="V24" s="11">
         <v>5</v>
       </c>
       <c r="W24" s="11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X24" s="11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y24" s="3">
-        <f>AVERAGE(M24:X24)</f>
-        <v>5.916666666666667</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25">
+        <f t="shared" si="0"/>
+        <v>4.416666666666667</v>
+      </c>
+      <c r="Z24" s="25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
       <c r="A25">
         <v>5</v>
       </c>
@@ -1677,31 +1778,31 @@
         <v>5</v>
       </c>
       <c r="M25" s="21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N25" s="11">
-        <v>4</v>
-      </c>
-      <c r="O25" s="11">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="O25" s="14">
+        <v>1</v>
       </c>
       <c r="P25" s="11">
         <v>5</v>
       </c>
       <c r="Q25" s="11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R25" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S25" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T25" s="11">
         <v>7</v>
       </c>
-      <c r="U25" s="11">
-        <v>2</v>
+      <c r="U25" s="14">
+        <v>1</v>
       </c>
       <c r="V25" s="11">
         <v>6</v>
@@ -1710,14 +1811,17 @@
         <v>4</v>
       </c>
       <c r="X25" s="11">
+        <v>3</v>
+      </c>
+      <c r="Y25" s="3">
+        <f t="shared" si="0"/>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="Z25" s="25">
         <v>4</v>
       </c>
-      <c r="Y25" s="3">
-        <f>AVERAGE(M25:X25)</f>
-        <v>4.25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25">
+    </row>
+    <row r="26" spans="1:26">
       <c r="A26">
         <v>6</v>
       </c>
@@ -1747,33 +1851,36 @@
       <c r="O26" s="16"/>
       <c r="P26" s="16"/>
       <c r="Q26" s="11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R26" s="11">
-        <v>5</v>
-      </c>
-      <c r="S26" s="11">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="S26" s="14">
+        <v>1</v>
       </c>
       <c r="T26" s="11">
         <v>6</v>
       </c>
-      <c r="U26" s="11">
-        <v>4</v>
+      <c r="U26" s="14">
+        <v>1</v>
       </c>
       <c r="V26" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W26" s="17"/>
       <c r="X26" s="23">
         <v>8</v>
       </c>
       <c r="Y26" s="3">
-        <f>AVERAGE(M26:X26)</f>
+        <f t="shared" si="0"/>
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="Z26" s="25">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:25">
+    <row r="27" spans="1:26">
       <c r="A27">
         <v>7</v>
       </c>
@@ -1808,8 +1915,8 @@
       <c r="R27" s="11">
         <v>9</v>
       </c>
-      <c r="S27" s="11">
-        <v>9</v>
+      <c r="S27" s="14">
+        <v>1</v>
       </c>
       <c r="T27" s="11">
         <v>9</v>
@@ -1825,11 +1932,14 @@
         <v>9</v>
       </c>
       <c r="Y27" s="3">
-        <f>AVERAGE(M27:X27)</f>
+        <f t="shared" si="0"/>
+        <v>7.8571428571428568</v>
+      </c>
+      <c r="Z27" s="25">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:25">
+    <row r="28" spans="1:26">
       <c r="A28">
         <v>8</v>
       </c>
@@ -1854,7 +1964,7 @@
       <c r="L28" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M28" s="21">
+      <c r="M28" s="26">
         <v>1</v>
       </c>
       <c r="N28" s="14">
@@ -1873,13 +1983,13 @@
         <v>1</v>
       </c>
       <c r="S28" s="11">
-        <v>8</v>
-      </c>
-      <c r="T28" s="11">
-        <v>2</v>
-      </c>
-      <c r="U28" s="11">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="T28" s="14">
+        <v>1</v>
+      </c>
+      <c r="U28" s="14">
+        <v>1</v>
       </c>
       <c r="V28" s="14">
         <v>1</v>
@@ -1888,14 +1998,17 @@
         <v>2</v>
       </c>
       <c r="X28" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y28" s="3">
-        <f>AVERAGE(M28:X28)</f>
-        <v>2.9166666666666665</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25">
+        <f t="shared" si="0"/>
+        <v>2.8333333333333335</v>
+      </c>
+      <c r="Z28" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
       <c r="A29">
         <v>9</v>
       </c>
@@ -1918,7 +2031,7 @@
         <v>111.066</v>
       </c>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:26">
       <c r="A30">
         <v>10</v>
       </c>
@@ -1941,7 +2054,7 @@
         <v>111.063</v>
       </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:26">
       <c r="A31">
         <v>11</v>
       </c>
@@ -1964,7 +2077,7 @@
         <v>109.071</v>
       </c>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:26">
       <c r="A32">
         <v>12</v>
       </c>
@@ -1987,7 +2100,7 @@
         <v>111.066</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:24">
       <c r="A33">
         <v>13</v>
       </c>
@@ -2010,7 +2123,7 @@
         <v>111.062</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:24">
       <c r="A34">
         <v>14</v>
       </c>
@@ -2032,8 +2145,47 @@
       <c r="I34">
         <v>109.07</v>
       </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="L34" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M34" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N34" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O34" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P34" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q34" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="R34" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="S34" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="T34" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="U34" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="V34" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="W34" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="X34" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24">
       <c r="A35">
         <v>15</v>
       </c>
@@ -2055,8 +2207,45 @@
       <c r="I35">
         <v>111.059</v>
       </c>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="L35" s="11"/>
+      <c r="M35" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N35" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="O35" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="P35" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q35" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="R35" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="S35" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="T35" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="U35" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="V35" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="W35" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="X35" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24">
       <c r="A36">
         <v>16</v>
       </c>
@@ -2078,8 +2267,47 @@
       <c r="I36">
         <v>109.07</v>
       </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="L36" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="M36" s="11">
+        <v>111.06100000000001</v>
+      </c>
+      <c r="N36" s="11">
+        <v>1.16581</v>
+      </c>
+      <c r="O36" s="11">
+        <v>4</v>
+      </c>
+      <c r="P36" s="11">
+        <v>416</v>
+      </c>
+      <c r="Q36" s="11">
+        <v>0.87968849999999998</v>
+      </c>
+      <c r="R36" s="14">
+        <v>0</v>
+      </c>
+      <c r="S36" s="13">
+        <v>7.77E-16</v>
+      </c>
+      <c r="T36" s="14">
+        <v>0</v>
+      </c>
+      <c r="U36" s="14">
+        <v>0</v>
+      </c>
+      <c r="V36" s="11">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="W36" s="14">
+        <v>68.5</v>
+      </c>
+      <c r="X36" s="11">
+        <v>16.298200000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24">
       <c r="A37">
         <v>17</v>
       </c>
@@ -2101,8 +2329,47 @@
       <c r="I37">
         <v>111.065</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="L37" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M37" s="11">
+        <v>110.0645</v>
+      </c>
+      <c r="N37" s="11">
+        <v>1.1172800000000001</v>
+      </c>
+      <c r="O37" s="11">
+        <v>6</v>
+      </c>
+      <c r="P37" s="11">
+        <v>480</v>
+      </c>
+      <c r="Q37" s="11">
+        <v>1.0674600000000001</v>
+      </c>
+      <c r="R37" s="11">
+        <v>8.0767799999999994</v>
+      </c>
+      <c r="S37" s="13">
+        <v>7.77E-16</v>
+      </c>
+      <c r="T37" s="11">
+        <v>6.2842849999999997</v>
+      </c>
+      <c r="U37" s="11">
+        <v>0</v>
+      </c>
+      <c r="V37" s="11">
+        <v>43.6</v>
+      </c>
+      <c r="W37" s="11">
+        <v>55</v>
+      </c>
+      <c r="X37" s="11">
+        <v>16.3566</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24">
       <c r="A38">
         <v>18</v>
       </c>
@@ -2124,8 +2391,47 @@
       <c r="I38">
         <v>111.059</v>
       </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="L38" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="M38" s="11">
+        <v>111.06</v>
+      </c>
+      <c r="N38" s="11">
+        <v>1.12635</v>
+      </c>
+      <c r="O38" s="11">
+        <v>4</v>
+      </c>
+      <c r="P38" s="11">
+        <v>456</v>
+      </c>
+      <c r="Q38" s="11">
+        <v>0.89242650000000001</v>
+      </c>
+      <c r="R38" s="11">
+        <v>4.0203699999999998</v>
+      </c>
+      <c r="S38" s="1">
+        <v>7.77E-16</v>
+      </c>
+      <c r="T38" s="11">
+        <v>4.1519649999999997</v>
+      </c>
+      <c r="U38" s="13">
+        <v>2.2204499999999999E-16</v>
+      </c>
+      <c r="V38" s="11">
+        <v>52.9</v>
+      </c>
+      <c r="W38" s="13">
+        <v>56.5</v>
+      </c>
+      <c r="X38" s="11">
+        <v>16.103899999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24">
       <c r="A39">
         <v>19</v>
       </c>
@@ -2147,8 +2453,47 @@
       <c r="I39">
         <v>113.02</v>
       </c>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="L39" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="M39" s="11">
+        <v>111.06100000000001</v>
+      </c>
+      <c r="N39" s="11">
+        <v>1.1465700000000001</v>
+      </c>
+      <c r="O39" s="11">
+        <v>4</v>
+      </c>
+      <c r="P39" s="11">
+        <v>432</v>
+      </c>
+      <c r="Q39" s="11">
+        <v>0.79886250000000003</v>
+      </c>
+      <c r="R39" s="14">
+        <v>0</v>
+      </c>
+      <c r="S39" s="13">
+        <v>7.77E-16</v>
+      </c>
+      <c r="T39" s="11">
+        <v>5.7096850000000003</v>
+      </c>
+      <c r="U39" s="11">
+        <v>0</v>
+      </c>
+      <c r="V39" s="11">
+        <v>2.13</v>
+      </c>
+      <c r="W39" s="11">
+        <v>62.5</v>
+      </c>
+      <c r="X39" s="11">
+        <v>16.162849999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24">
       <c r="A40">
         <v>20</v>
       </c>
@@ -2170,8 +2515,47 @@
       <c r="I40">
         <v>111.06399999999999</v>
       </c>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="L40" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="M40" s="11">
+        <v>109.071</v>
+      </c>
+      <c r="N40" s="11">
+        <v>1.130145</v>
+      </c>
+      <c r="O40" s="11">
+        <v>4</v>
+      </c>
+      <c r="P40" s="11">
+        <v>470</v>
+      </c>
+      <c r="Q40" s="11">
+        <v>1.0383249999999999</v>
+      </c>
+      <c r="R40" s="11">
+        <v>4.6307999999999998</v>
+      </c>
+      <c r="S40" s="13">
+        <v>7.77E-16</v>
+      </c>
+      <c r="T40" s="11">
+        <v>9.7160849999999996</v>
+      </c>
+      <c r="U40" s="11">
+        <v>0</v>
+      </c>
+      <c r="V40" s="11">
+        <v>25</v>
+      </c>
+      <c r="W40" s="11">
+        <v>60</v>
+      </c>
+      <c r="X40" s="11">
+        <v>16.279399999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24">
       <c r="A41">
         <v>21</v>
       </c>
@@ -2194,8 +2578,47 @@
         <f>AVERAGE(I21:I40)</f>
         <v>110.76224999999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="L41" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="M41" s="11">
+        <v>111.062</v>
+      </c>
+      <c r="N41" s="11">
+        <v>1.1163000000000001</v>
+      </c>
+      <c r="O41" s="11">
+        <v>4</v>
+      </c>
+      <c r="P41" s="11">
+        <v>476</v>
+      </c>
+      <c r="Q41" s="11">
+        <v>1.2517400000000001</v>
+      </c>
+      <c r="R41" s="11">
+        <v>4.0203699999999998</v>
+      </c>
+      <c r="S41" s="13">
+        <v>7.77E-16</v>
+      </c>
+      <c r="T41" s="11">
+        <v>7.3005449999999996</v>
+      </c>
+      <c r="U41" s="11">
+        <v>0</v>
+      </c>
+      <c r="V41" s="11">
+        <v>32.9</v>
+      </c>
+      <c r="W41" s="11">
+        <v>60.5</v>
+      </c>
+      <c r="X41" s="11">
+        <v>16.152699999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24">
       <c r="A42">
         <v>22</v>
       </c>
@@ -2214,8 +2637,37 @@
       <c r="F42" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="L42" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="16"/>
+      <c r="Q42" s="11">
+        <v>1.1204050000000001</v>
+      </c>
+      <c r="R42" s="11">
+        <v>2.6610100000000001</v>
+      </c>
+      <c r="S42" s="13">
+        <v>7.77E-16</v>
+      </c>
+      <c r="T42" s="11">
+        <v>7.2276499999999997</v>
+      </c>
+      <c r="U42" s="11">
+        <v>0</v>
+      </c>
+      <c r="V42" s="11">
+        <v>16.7</v>
+      </c>
+      <c r="W42" s="17"/>
+      <c r="X42" s="23">
+        <v>16.4313</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24">
       <c r="A43">
         <v>23</v>
       </c>
@@ -2234,8 +2686,37 @@
       <c r="F43" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="L43" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="M43" s="16"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="16"/>
+      <c r="P43" s="16"/>
+      <c r="Q43" s="11">
+        <v>18.164549999999998</v>
+      </c>
+      <c r="R43" s="11">
+        <v>12.348100000000001</v>
+      </c>
+      <c r="S43" s="13">
+        <v>7.77E-16</v>
+      </c>
+      <c r="T43" s="11">
+        <v>12.727499999999999</v>
+      </c>
+      <c r="U43" s="11">
+        <v>7.4546900000000003</v>
+      </c>
+      <c r="V43" s="11">
+        <v>1080</v>
+      </c>
+      <c r="W43" s="16"/>
+      <c r="X43" s="23">
+        <v>21.306550000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24">
       <c r="A44">
         <v>24</v>
       </c>
@@ -2254,8 +2735,47 @@
       <c r="F44" s="1">
         <v>44</v>
       </c>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="L44" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="M44" s="11">
+        <v>113.03100000000001</v>
+      </c>
+      <c r="N44" s="11">
+        <v>1.1857850000000001</v>
+      </c>
+      <c r="O44" s="11">
+        <v>14.5</v>
+      </c>
+      <c r="P44" s="11">
+        <v>736</v>
+      </c>
+      <c r="Q44" s="18">
+        <v>0.13645750000000001</v>
+      </c>
+      <c r="R44" s="14">
+        <v>0</v>
+      </c>
+      <c r="S44" s="13">
+        <v>1.3899999999999999E-15</v>
+      </c>
+      <c r="T44" s="11">
+        <v>0</v>
+      </c>
+      <c r="U44" s="11">
+        <v>0</v>
+      </c>
+      <c r="V44" s="15">
+        <v>1.18E-13</v>
+      </c>
+      <c r="W44" s="11">
+        <v>65</v>
+      </c>
+      <c r="X44" s="11">
+        <v>16.132249999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24">
       <c r="A45">
         <v>25</v>
       </c>
@@ -2275,7 +2795,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:24">
       <c r="A46">
         <v>26</v>
       </c>
@@ -2295,7 +2815,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:24">
       <c r="A47">
         <v>27</v>
       </c>
@@ -2315,7 +2835,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:24">
       <c r="A48">
         <v>28</v>
       </c>
